--- a/web/excel/用户包裹29860.xlsx
+++ b/web/excel/用户包裹29860.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>包裹单号</t>
   </si>
@@ -38,19 +38,49 @@
     <t>重量</t>
   </si>
   <si>
-    <t>系统单号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567890 </t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>已入库</t>
-  </si>
-  <si>
-    <t>202311202156425413405839</t>
+    <t>唛头</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>总重量</t>
+  </si>
+  <si>
+    <t>总体积</t>
+  </si>
+  <si>
+    <t>体积重</t>
+  </si>
+  <si>
+    <t>货品</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456897765544 </t>
+  </si>
+  <si>
+    <t>冯小狼</t>
+  </si>
+  <si>
+    <t>已分拣上架</t>
+  </si>
+  <si>
+    <t>2023-12-13 19:40:51</t>
+  </si>
+  <si>
+    <t>202312131940515759248818</t>
   </si>
 </sst>
 </file>
@@ -395,7 +425,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,9 +441,18 @@
     <col min="6" max="6" width="30" customWidth="true" style="2"/>
     <col min="7" max="7" width="10" customWidth="true" style="2"/>
     <col min="8" max="8" width="30" customWidth="true" style="2"/>
+    <col min="9" max="9" width="30" customWidth="true" style="2"/>
+    <col min="10" max="10" width="30" customWidth="true" style="2"/>
+    <col min="11" max="11" width="30" customWidth="true" style="2"/>
+    <col min="12" max="12" width="30" customWidth="true" style="2"/>
+    <col min="13" max="13" width="30" customWidth="true" style="2"/>
+    <col min="14" max="14" width="30" customWidth="true" style="2"/>
+    <col min="15" max="15" width="30" customWidth="true" style="2"/>
+    <col min="16" max="16" width="30" customWidth="true" style="2"/>
+    <col min="17" max="17" width="30" customWidth="true" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,29 +477,83 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>15517</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>17207222326</v>
+        <v>180863285504</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
